--- a/media/output/result/bpic2011_f2_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2011_f2_complex_evaluation_weighted_edit_distance.xlsx
@@ -505,25 +505,25 @@
         <v>227</v>
       </c>
       <c r="C3" t="n">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3392070484581498</v>
+        <v>0.6875</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5065789473684211</v>
+        <v>0.1383647798742139</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         <v>218</v>
       </c>
       <c r="C4" t="n">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>282</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3532110091743119</v>
+        <v>0.6875</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5220338983050847</v>
+        <v>0.1383647798742139</v>
       </c>
     </row>
     <row r="5">
@@ -563,25 +563,25 @@
         <v>213</v>
       </c>
       <c r="C5" t="n">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3615023474178404</v>
+        <v>0.6875</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5310344827586206</v>
+        <v>0.1383647798742139</v>
       </c>
     </row>
     <row r="6">
@@ -592,25 +592,25 @@
         <v>207</v>
       </c>
       <c r="C6" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3719806763285024</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5422535211267606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -679,10 +679,10 @@
         <v>198</v>
       </c>
       <c r="C9" t="n">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="D9" t="n">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3922651933701657</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5634920634920635</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -708,10 +708,10 @@
         <v>198</v>
       </c>
       <c r="C10" t="n">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="D10" t="n">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -720,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3922651933701657</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5634920634920635</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -737,10 +737,10 @@
         <v>198</v>
       </c>
       <c r="C11" t="n">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3922651933701657</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5634920634920635</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="12">

--- a/media/output/result/bpic2011_f2_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2011_f2_complex_evaluation_weighted_edit_distance.xlsx
@@ -505,25 +505,25 @@
         <v>227</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E3" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6875</v>
+        <v>0.3392070484581498</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07692307692307693</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1383647798742139</v>
+        <v>0.5065789473684211</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         <v>218</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>282</v>
       </c>
       <c r="E4" t="n">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6875</v>
+        <v>0.3532110091743119</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07692307692307693</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1383647798742139</v>
+        <v>0.5220338983050847</v>
       </c>
     </row>
     <row r="5">
@@ -563,25 +563,25 @@
         <v>213</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>272</v>
       </c>
       <c r="E5" t="n">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6875</v>
+        <v>0.3615023474178404</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07692307692307693</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1383647798742139</v>
+        <v>0.5310344827586206</v>
       </c>
     </row>
     <row r="6">
@@ -592,25 +592,25 @@
         <v>207</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="E6" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.3719806763285024</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.5422535211267606</v>
       </c>
     </row>
     <row r="7">
@@ -679,10 +679,10 @@
         <v>198</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D9" t="n">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3922651933701657</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5634920634920635</v>
       </c>
     </row>
     <row r="10">
@@ -708,10 +708,10 @@
         <v>198</v>
       </c>
       <c r="C10" t="n">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D10" t="n">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -720,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3922651933701657</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5634920634920635</v>
       </c>
     </row>
     <row r="11">
@@ -737,10 +737,10 @@
         <v>198</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="D11" t="n">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3922651933701657</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5634920634920635</v>
       </c>
     </row>
     <row r="12">
